--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ifnl2-Ifnlr1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ifnl2-Ifnlr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -92,9 +92,6 @@
   </si>
   <si>
     <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,10 +537,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.001661666666666667</v>
+        <v>0.001364</v>
       </c>
       <c r="H2">
-        <v>0.004985</v>
+        <v>0.004092</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -558,28 +555,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.02078066666666667</v>
+        <v>0.04257266666666667</v>
       </c>
       <c r="N2">
-        <v>0.06234199999999999</v>
+        <v>0.127718</v>
       </c>
       <c r="O2">
-        <v>0.004130106503509948</v>
+        <v>0.007034104319295177</v>
       </c>
       <c r="P2">
-        <v>0.004130106503509948</v>
+        <v>0.007034104319295176</v>
       </c>
       <c r="Q2">
-        <v>3.453054111111111E-05</v>
+        <v>5.806911733333333E-05</v>
       </c>
       <c r="R2">
-        <v>0.00031077487</v>
+        <v>0.000522622056</v>
       </c>
       <c r="S2">
-        <v>0.004130106503509948</v>
+        <v>0.007034104319295177</v>
       </c>
       <c r="T2">
-        <v>0.004130106503509948</v>
+        <v>0.007034104319295176</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,10 +599,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.001661666666666667</v>
+        <v>0.001364</v>
       </c>
       <c r="H3">
-        <v>0.004985</v>
+        <v>0.004092</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -620,28 +617,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.06953233333333332</v>
+        <v>0.04484833333333333</v>
       </c>
       <c r="N3">
-        <v>0.208597</v>
+        <v>0.134545</v>
       </c>
       <c r="O3">
-        <v>0.01381938061519785</v>
+        <v>0.007410103240260335</v>
       </c>
       <c r="P3">
-        <v>0.01381938061519785</v>
+        <v>0.007410103240260335</v>
       </c>
       <c r="Q3">
-        <v>0.0001155395605555555</v>
+        <v>6.117312666666666E-05</v>
       </c>
       <c r="R3">
-        <v>0.001039856045</v>
+        <v>0.00055055814</v>
       </c>
       <c r="S3">
-        <v>0.01381938061519785</v>
+        <v>0.007410103240260335</v>
       </c>
       <c r="T3">
-        <v>0.01381938061519785</v>
+        <v>0.007410103240260335</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,10 +661,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.001661666666666667</v>
+        <v>0.001364</v>
       </c>
       <c r="H4">
-        <v>0.004985</v>
+        <v>0.004092</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -682,90 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.884047666666667</v>
+        <v>5.964901333333334</v>
       </c>
       <c r="N4">
-        <v>14.652143</v>
+        <v>17.894704</v>
       </c>
       <c r="O4">
-        <v>0.9706924881245029</v>
+        <v>0.9855557924404444</v>
       </c>
       <c r="P4">
-        <v>0.9706924881245029</v>
+        <v>0.9855557924404444</v>
       </c>
       <c r="Q4">
-        <v>0.00811565920611111</v>
+        <v>0.008136125418666667</v>
       </c>
       <c r="R4">
-        <v>0.07304093285499999</v>
+        <v>0.07322512876800001</v>
       </c>
       <c r="S4">
-        <v>0.9706924881245029</v>
+        <v>0.9855557924404444</v>
       </c>
       <c r="T4">
-        <v>0.9706924881245029</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G5">
-        <v>0.001661666666666667</v>
-      </c>
-      <c r="H5">
-        <v>0.004985</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M5">
-        <v>0.057148</v>
-      </c>
-      <c r="N5">
-        <v>0.171444</v>
-      </c>
-      <c r="O5">
-        <v>0.01135802475678932</v>
-      </c>
-      <c r="P5">
-        <v>0.01135802475678932</v>
-      </c>
-      <c r="Q5">
-        <v>9.496092666666667E-05</v>
-      </c>
-      <c r="R5">
-        <v>0.00085464834</v>
-      </c>
-      <c r="S5">
-        <v>0.01135802475678932</v>
-      </c>
-      <c r="T5">
-        <v>0.01135802475678932</v>
+        <v>0.9855557924404444</v>
       </c>
     </row>
   </sheetData>
